--- a/assets/uploads/templates/template.xlsx
+++ b/assets/uploads/templates/template.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BE36FD-A137-4068-B4AE-3474709AE120}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F20B5F-B8A9-4102-8643-CF6D9079FCDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="54y6wFzb5xRDHWgnKYE2dyY8x3NXviyfUacWM596MHnXn5oupItYGN8FU8LRGntZ9XCwjf/neq0Ofy24y/7QzQ==" workbookSaltValue="wpq9nJjh6i4H+Xz359OteA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" activeTab="2" xr2:uid="{583A6A4E-A812-461C-B0D8-F3BD4B06D54C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" activeTab="1" xr2:uid="{583A6A4E-A812-461C-B0D8-F3BD4B06D54C}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>Project Title</t>
   </si>
@@ -138,9 +138,6 @@
     <t>All fields are required</t>
   </si>
   <si>
-    <t>*Required</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -291,78 +288,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>R (Responsible)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A (Accountable)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C (Consulted)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I (Informed)</t>
     </r>
   </si>
   <si>
@@ -423,6 +348,196 @@
 A (Accountable)
 C (Consulted)
 I (Informed)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">R </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- One employee only
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- As many as it needs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- As many as it needs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- As many as it needs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*Required for All</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*Required for Tasks</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A (Accountable)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C (Consulted)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I (Informed)</t>
+    </r>
+  </si>
+  <si>
+    <t>Please follow these instructions to ensure that the project you are trying to upload goes through without any problems</t>
   </si>
 </sst>
 </file>
@@ -432,7 +547,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +595,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -495,7 +626,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -518,48 +649,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -586,57 +680,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -645,6 +703,45 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -960,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25318BA-378E-4535-A4E0-C8162B42E455}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -972,344 +1069,352 @@
     <col min="2" max="2" width="49.05078125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:5" ht="115.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="34"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="28" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="27" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9">
-        <v>43409</v>
+        <v>1</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="9">
-        <v>43439</v>
+        <v>43409</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="9">
+        <v>43439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="31" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="30" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="30"/>
-      <c r="B11" s="8" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="25"/>
+      <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="30"/>
-      <c r="B12" s="8" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="25"/>
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="10" t="s">
+    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="26" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="26"/>
-    </row>
-    <row r="15" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="28"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="27" t="s">
+      <c r="B15" s="24"/>
+    </row>
+    <row r="16" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="22"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="27"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="B17" s="26"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="15">
-        <v>43409</v>
+        <v>33</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="15">
-        <v>43414</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="B19" s="14">
+        <v>43409</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B20" s="14">
+        <v>43414</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="16">
-        <v>3</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="B23" s="15">
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="8" t="s">
+    <row r="26" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="24"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="28"/>
+      <c r="B31" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="28"/>
+      <c r="B32" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="28"/>
+      <c r="B33" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="26"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="20"/>
-      <c r="B30" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="20"/>
-      <c r="B31" s="17" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="20"/>
-      <c r="B32" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="11" t="s">
+    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="29"/>
+      <c r="B38" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="17" t="s">
+    <row r="39" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="11" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="32"/>
+      <c r="B40" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="21"/>
-      <c r="B37" s="19" t="s">
+    <row r="41" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="32"/>
+      <c r="B41" s="33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="21"/>
-      <c r="B39" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="21"/>
-      <c r="B40" s="23"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="21"/>
-      <c r="B41" s="24"/>
-    </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="21"/>
-      <c r="B42" s="24"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="31"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="21"/>
-      <c r="B43" s="24"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="31"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="21"/>
-      <c r="B44" s="25"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="31"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="30"/>
+      <c r="B45" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0B7RNFTjFqKZhmVerFzuOiMZTH3ZSMeQe7vnYjByRkMIsKQe7rD1jPb8PrDmZ5fOEsMK3ATn0HUtmnJk54i/tQ==" saltValue="mSGtMon/p6mlAdSSVD6maA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kAIzSqh+o7ZYsV0usRhUDjlDcjnc0rovIiJYaXtrSB5le4rCfcphnQujcrUb9AU3v5yYZQ6p5fun9MHRIh2ZpQ==" saltValue="dmPrCXdljnGYMN/BfMKEWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A11:A13"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1320,14 +1425,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA28751-528F-4A6F-8C3E-65A25DE939E8}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="16.05078125" customWidth="1"/>
-    <col min="2" max="2" width="33.3671875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="33.3671875" style="20" customWidth="1"/>
     <col min="3" max="16384" width="8.83984375" hidden="1"/>
   </cols>
   <sheetData>
@@ -1345,13 +1450,13 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="21"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="21"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
@@ -1359,7 +1464,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="k5nVUnPuOImgCjenf7eFuVzH2on0n2AF5NJC8sMP1xADlXyDfB8HpksgXF5trzzK6F4qNDbdEF9wCpRWsCCRkg==" saltValue="tHIt40SY2vf8WJEnj6OA4g==" spinCount="100000" sheet="1" formatColumns="0" formatRows="0"/>
   <dataConsolidate/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{02DF79AD-0EEF-47D8-9500-406DD63F0666}">
@@ -1375,17 +1480,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820F6412-1538-4786-A41F-3736954A3B42}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="32" customWidth="1"/>
-    <col min="2" max="3" width="9.83984375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.83984375" style="32" customWidth="1"/>
-    <col min="7" max="7" width="10.15625" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="8.83984375" style="32" customWidth="1"/>
+    <col min="1" max="1" width="8.83984375" style="20" customWidth="1"/>
+    <col min="2" max="3" width="9.83984375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.83984375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="10.15625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="8.83984375" style="20" customWidth="1"/>
     <col min="12" max="16384" width="8.83984375" hidden="1"/>
   </cols>
   <sheetData>
@@ -1425,7 +1530,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HH5ScFqWlY89WPtKC02CRlPUTq/wSQN2NPz0jgMDjorNO4o+minxJpc0qa+v6UihapCkdM15rj9UIbsG2feaAA==" saltValue="uhKE9kYzGZGyqP1Ckp/GZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="cYVo2GBpuG60kRYjS+XRcGZLhMbRjVj3QzIH8/B4bAsaRgFl9jAMKx/lwko3u4l0ugBzomrKLx8i2roFPmPmIw==" saltValue="/66Zd/fG9xuS9af21KTydw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" insertRows="0"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{3C37A9F6-FF15-4EEB-A9B1-2439B7E25CFF}">
       <formula1>"Planning, Ongoing, Complete"</formula1>

--- a/assets/uploads/templates/template.xlsx
+++ b/assets/uploads/templates/template.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F20B5F-B8A9-4102-8643-CF6D9079FCDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93804DAE-5687-45F3-8A19-6DE4FB0D6F3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="54y6wFzb5xRDHWgnKYE2dyY8x3NXviyfUacWM596MHnXn5oupItYGN8FU8LRGntZ9XCwjf/neq0Ofy24y/7QzQ==" workbookSaltValue="wpq9nJjh6i4H+Xz359OteA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" activeTab="1" xr2:uid="{583A6A4E-A812-461C-B0D8-F3BD4B06D54C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{583A6A4E-A812-461C-B0D8-F3BD4B06D54C}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
   <si>
     <t>Project Title</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>Format: YYYY-MM-DD</t>
-  </si>
-  <si>
-    <t>Start Date / End Date</t>
   </si>
   <si>
     <t>Must be a valid input from the list below:
@@ -135,9 +132,6 @@
     <t>Donald Duck</t>
   </si>
   <si>
-    <t>All fields are required</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -538,6 +532,163 @@
   </si>
   <si>
     <t>Please follow these instructions to ensure that the project you are trying to upload goes through without any problems</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use a comma (, ) to separate multiple </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ACI</t>
+    </r>
+  </si>
+  <si>
+    <t>Mickey Mouse, Donald Duck</t>
+  </si>
+  <si>
+    <t>Actual End Date</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actual End</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Date</t>
+    </r>
+  </si>
+  <si>
+    <t>*Required</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Project Title</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Project Description</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>End Date</t>
+    </r>
+  </si>
+  <si>
+    <t>Start Date
+End Date
+Actual End Date</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual End Date is required if the status of the project is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Complete</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actual End Date is required if the status of the task is </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Complete</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -672,9 +823,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -690,12 +838,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -704,6 +846,27 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -713,14 +876,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -728,20 +891,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1057,10 +1208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25318BA-378E-4535-A4E0-C8162B42E455}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1070,41 +1221,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="115.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="34"/>
+      <c r="A1" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="24"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+    <row r="3" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="26"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>16</v>
@@ -1112,7 +1263,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>17</v>
@@ -1120,7 +1271,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B7" s="9">
         <v>43409</v>
@@ -1128,7 +1279,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B8" s="9">
         <v>43439</v>
@@ -1136,285 +1287,311 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="32"/>
+      <c r="B13" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="32"/>
+      <c r="B14" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="32"/>
+      <c r="B15" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="25" t="s">
+      <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="25"/>
-      <c r="B12" s="8" t="s">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="25"/>
-      <c r="B13" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="24"/>
-    </row>
-    <row r="16" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="22"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="26" t="s">
+      <c r="B17" s="28"/>
+    </row>
+    <row r="18" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="26"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="26"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="14">
-        <v>43409</v>
-      </c>
+      <c r="B19" s="29"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="14">
-        <v>43414</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="B21" s="13">
+        <v>43409</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="B22" s="13">
+        <v>43414</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="15">
-        <v>3</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="B26" s="14">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="24" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="24"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="8" t="s">
+      <c r="B32" s="28"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="28"/>
-      <c r="B31" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="28"/>
-      <c r="B32" s="16" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="32"/>
+      <c r="B34" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="32"/>
+      <c r="B35" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="32"/>
+      <c r="B36" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="32"/>
+      <c r="B37" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="28"/>
-      <c r="B33" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="11" t="s">
+    <row r="40" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="16" t="s">
+    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="11" t="s">
+    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="33"/>
+      <c r="B42" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B37" s="17" t="s">
+    <row r="43" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="29"/>
-      <c r="B38" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="32"/>
-      <c r="B40" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="32"/>
-      <c r="B41" s="33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="30"/>
-      <c r="B42" s="31"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="30"/>
-      <c r="B43" s="31"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="30"/>
-      <c r="B44" s="31"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="30"/>
-      <c r="B45" s="31"/>
+      <c r="B45" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="30"/>
+      <c r="B46" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="21"/>
+      <c r="B47" s="22"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kAIzSqh+o7ZYsV0usRhUDjlDcjnc0rovIiJYaXtrSB5le4rCfcphnQujcrUb9AU3v5yYZQ6p5fun9MHRIh2ZpQ==" saltValue="dmPrCXdljnGYMN/BfMKEWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="X8Fv1aFfZLEau/3xKmVKqOLZTy8ZZkLYeJ8i6BI5Y7/C2j5SR86mNrH6QvBUeFmmpDgVx+NfFN3lfDL3k3AwBg==" saltValue="ggj8eskMufs3khFpWNg+3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
+    <mergeCell ref="A43:A46"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A41:A42"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A12:A15"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1423,16 +1600,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA28751-528F-4A6F-8C3E-65A25DE939E8}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="16.05078125" customWidth="1"/>
-    <col min="2" max="2" width="33.3671875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="33.3671875" style="17" customWidth="1"/>
     <col min="3" max="16384" width="8.83984375" hidden="1"/>
   </cols>
   <sheetData>
@@ -1450,24 +1627,30 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="18"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="21"/>
+      <c r="B4" s="18"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="18"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="k5nVUnPuOImgCjenf7eFuVzH2on0n2AF5NJC8sMP1xADlXyDfB8HpksgXF5trzzK6F4qNDbdEF9wCpRWsCCRkg==" saltValue="tHIt40SY2vf8WJEnj6OA4g==" spinCount="100000" sheet="1" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="CkeySC/C8iZRYd/Bou+kHJ+tenqRJgeVo9p+KKznjzbtDQUTfT+oF+BlDJNnvo7PIZmx4c32ZAFjn3qc9z7CuA==" saltValue="C4mwpbXAl5RdCHG8Scmucg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <dataConsolidate/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{02DF79AD-0EEF-47D8-9500-406DD63F0666}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{02DF79AD-0EEF-47D8-9500-406DD63F0666}">
       <formula1>"Planning, Ongoing, Complete, Archived"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1478,23 +1661,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820F6412-1538-4786-A41F-3736954A3B42}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="20" customWidth="1"/>
-    <col min="2" max="3" width="9.83984375" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.83984375" style="20" customWidth="1"/>
-    <col min="7" max="7" width="10.15625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="8.83984375" style="20" customWidth="1"/>
-    <col min="12" max="16384" width="8.83984375" hidden="1"/>
+    <col min="1" max="1" width="8.83984375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="9.83984375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83984375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="13.578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.83984375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="10.15625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.83984375" style="17" customWidth="1"/>
+    <col min="13" max="16384" width="8.83984375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1504,38 +1689,41 @@
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cYVo2GBpuG60kRYjS+XRcGZLhMbRjVj3QzIH8/B4bAsaRgFl9jAMKx/lwko3u4l0ugBzomrKLx8i2roFPmPmIw==" saltValue="/66Zd/fG9xuS9af21KTydw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" insertRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="v/LjNG37xQiF24i0IxUCwr4F1DmNMtY03j8HmH1YC/t4YmmJdgvISqBz/ESgjZY5UDqU2z4/vc3ARnztWkDXgg==" saltValue="zpWSs5VrUP2pXfZqzeeF5A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" insertRows="0"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{3C37A9F6-FF15-4EEB-A9B1-2439B7E25CFF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{3C37A9F6-FF15-4EEB-A9B1-2439B7E25CFF}">
       <formula1>"Planning, Ongoing, Complete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{DD541CC6-D49D-46CB-A88B-7F080EA9B42F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{DD541CC6-D49D-46CB-A88B-7F080EA9B42F}">
       <formula1>"1, 2, 3"</formula1>
     </dataValidation>
   </dataValidations>

--- a/assets/uploads/templates/template.xlsx
+++ b/assets/uploads/templates/template.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93804DAE-5687-45F3-8A19-6DE4FB0D6F3E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="54y6wFzb5xRDHWgnKYE2dyY8x3NXviyfUacWM596MHnXn5oupItYGN8FU8LRGntZ9XCwjf/neq0Ofy24y/7QzQ==" workbookSaltValue="wpq9nJjh6i4H+Xz359OteA==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B081BFC-3787-492E-99B6-8DB3D30C8E27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="L9Z15vBEz2epGjrmnD2GCZ3TpAEXPNqlWRnxO6loUarhdnFKARBiGAH/Wyv79dpM+TVRnBe6uTeWl8Q6c6dAtQ==" workbookSaltValue="/6iLE69xz0Zw6rrNckWjJA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{583A6A4E-A812-461C-B0D8-F3BD4B06D54C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5400" activeTab="1" xr2:uid="{583A6A4E-A812-461C-B0D8-F3BD4B06D54C}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
     <sheet name="Project Details" sheetId="5" r:id="rId2"/>
-    <sheet name="Tasks" sheetId="3" r:id="rId3"/>
+    <sheet name="Project Assessment" sheetId="6" r:id="rId3"/>
+    <sheet name="Tasks" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
   <si>
     <t>Project Title</t>
   </si>
@@ -689,6 +690,44 @@
       </rPr>
       <t>Complete</t>
     </r>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Completeness</t>
+  </si>
+  <si>
+    <t>Timeliness</t>
+  </si>
+  <si>
+    <t>Project Assessment</t>
+  </si>
+  <si>
+    <t>Completeness
+%</t>
+  </si>
+  <si>
+    <t>Timeliness
+%</t>
+  </si>
+  <si>
+    <t>Should start from the Project Start Date</t>
+  </si>
+  <si>
+    <t>Should have 2 decimal places</t>
+  </si>
+  <si>
+    <t>If new project:</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>Archived</t>
   </si>
 </sst>
 </file>
@@ -777,7 +816,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -800,11 +839,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -816,8 +864,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -826,7 +872,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -852,12 +897,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -867,32 +906,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1208,390 +1294,481 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25318BA-378E-4535-A4E0-C8162B42E455}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17.9453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.05078125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.20703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.89453125" customWidth="1"/>
+    <col min="5" max="5" width="9.26171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="115.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="39"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="26" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="C5" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="C6" s="23">
+        <v>43409</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>43409</v>
       </c>
+      <c r="C7" s="23">
+        <v>43410</v>
+      </c>
+      <c r="D7" s="24">
+        <v>5</v>
+      </c>
+      <c r="E7" s="24">
+        <v>90</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>43439</v>
       </c>
+      <c r="C8" s="23">
+        <v>43411</v>
+      </c>
+      <c r="D8" s="24">
+        <v>12.75</v>
+      </c>
+      <c r="E8" s="24">
+        <v>82.75</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="23">
+        <v>43412</v>
+      </c>
+      <c r="D9" s="24">
+        <v>15.5</v>
+      </c>
+      <c r="E9" s="24">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
+      <c r="C10" s="23">
+        <v>43413</v>
+      </c>
+      <c r="D10" s="24">
+        <v>19.010000000000002</v>
+      </c>
+      <c r="E10" s="24">
+        <v>77.930000000000007</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="32"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="40"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="41"/>
+      <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="32"/>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="33"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="41"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="30"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="41"/>
+      <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="32"/>
-      <c r="B15" s="10" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="41"/>
+      <c r="B17" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="24" t="s">
+    <row r="18" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="28" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="28"/>
-    </row>
-    <row r="18" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="26" t="s">
+      <c r="B19" s="43"/>
+    </row>
+    <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="26"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="29" t="s">
+      <c r="B20" s="45"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="29"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="7" t="s">
+      <c r="B21" s="44"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="7" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B23" s="10">
         <v>43409</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="7" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B24" s="10">
         <v>43414</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="7" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="7" t="s">
+      <c r="B25" s="10"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="7" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="7" t="s">
+      <c r="B27" s="6"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B28" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="7" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B29" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="7" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="7" t="s">
+    <row r="31" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="7" t="s">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="7" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B33" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="28" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="28"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="34" t="s">
+      <c r="B34" s="43"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B35" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="32"/>
-      <c r="B34" s="8" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="41"/>
+      <c r="B36" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="32"/>
-      <c r="B35" s="15" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="41"/>
+      <c r="B37" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="32"/>
-      <c r="B36" s="8" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="41"/>
+      <c r="B38" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="32"/>
-      <c r="B37" s="10" t="s">
+    <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="41"/>
+      <c r="B39" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="19" t="s">
+    <row r="40" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B40" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="7" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B41" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="20" t="s">
+    <row r="42" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B42" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="33" t="s">
+    <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B43" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="33"/>
-      <c r="B42" s="16" t="s">
+    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="42"/>
+      <c r="B44" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="30" t="s">
+    <row r="45" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B45" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="30"/>
-      <c r="B44" s="16" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="38"/>
+      <c r="B46" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="30"/>
-      <c r="B45" s="23" t="s">
+    <row r="47" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="38"/>
+      <c r="B47" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="30"/>
-      <c r="B46" s="25" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="38"/>
+      <c r="B48" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="X8Fv1aFfZLEau/3xKmVKqOLZTy8ZZkLYeJ8i6BI5Y7/C2j5SR86mNrH6QvBUeFmmpDgVx+NfFN3lfDL3k3AwBg==" saltValue="ggj8eskMufs3khFpWNg+3A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="13">
-    <mergeCell ref="A43:A46"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="fs9sxagiXee2QLASIeuAUv5AjCSYKtP3nVe2jlSIXoRFu6g00a5ndDbe7bI0a2pl3mHPVwJzVuvDh/+1jtcX+Q==" saltValue="bc8HRvpigal/MHhDBVvNDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="20">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A45:A48"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A43:A44"/>
     <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A12:A17"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1602,14 +1779,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA28751-528F-4A6F-8C3E-65A25DE939E8}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="16.05078125" customWidth="1"/>
-    <col min="2" max="2" width="33.3671875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="33.3671875" style="14" customWidth="1"/>
     <col min="3" max="16384" width="8.83984375" hidden="1"/>
   </cols>
   <sheetData>
@@ -1617,39 +1794,52 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="14" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="15">
+        <v>43415</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="15">
+        <v>43445</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="15"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6" s="14" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="CkeySC/C8iZRYd/Bou+kHJ+tenqRJgeVo9p+KKznjzbtDQUTfT+oF+BlDJNnvo7PIZmx4c32ZAFjn3qc9z7CuA==" saltValue="C4mwpbXAl5RdCHG8Scmucg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <dataConsolidate/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{02DF79AD-0EEF-47D8-9500-406DD63F0666}">
       <formula1>"Planning, Ongoing, Complete, Archived"</formula1>
     </dataValidation>
@@ -1660,22 +1850,62 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3AC035-B786-4019-BEDA-2BA1ADC5DFA8}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="10.15625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.20703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26171875" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83984375" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="21">
+        <f>'Project Details'!B3</f>
+        <v>43415</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="8eEDGcpQLG8VbIPsgTqs8X15c75LNoGef+7MaN3HYp1/HA1/wPPys1+FZposxVNZNgeCR1de+Cza32pG/Da2iw==" saltValue="0HZRjRlau23EoOH5JoP4Vg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820F6412-1538-4786-A41F-3736954A3B42}">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="9.83984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83984375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="13.578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.83984375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="10.15625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.83984375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="8.83984375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9.83984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83984375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="13.578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.83984375" style="14" customWidth="1"/>
+    <col min="8" max="8" width="10.15625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.83984375" style="14" customWidth="1"/>
     <col min="13" max="16384" width="8.83984375" hidden="1"/>
   </cols>
   <sheetData>

--- a/assets/uploads/templates/template.xlsx
+++ b/assets/uploads/templates/template.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B081BFC-3787-492E-99B6-8DB3D30C8E27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C88603-57D5-4199-94C8-75C59415C36C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="L9Z15vBEz2epGjrmnD2GCZ3TpAEXPNqlWRnxO6loUarhdnFKARBiGAH/Wyv79dpM+TVRnBe6uTeWl8Q6c6dAtQ==" workbookSaltValue="/6iLE69xz0Zw6rrNckWjJA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5400" activeTab="1" xr2:uid="{583A6A4E-A812-461C-B0D8-F3BD4B06D54C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{583A6A4E-A812-461C-B0D8-F3BD4B06D54C}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t>Project Title</t>
   </si>
@@ -719,15 +719,6 @@
   </si>
   <si>
     <t>If new project:</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>Archived</t>
   </si>
 </sst>
 </file>
@@ -923,6 +914,51 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -932,53 +968,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1296,7 +1287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25318BA-378E-4535-A4E0-C8162B42E455}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1310,43 +1301,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="115.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="35"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
@@ -1449,16 +1440,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="36" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1467,51 +1458,51 @@
       <c r="C12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="29"/>
+      <c r="E12" s="44"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="40"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="41"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="33"/>
+      <c r="E14" s="46"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="41"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="6"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="45"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="41"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
     </row>
     <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="41"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="8" t="s">
         <v>61</v>
       </c>
@@ -1525,22 +1516,22 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="39"/>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="45"/>
+      <c r="B20" s="41"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="44"/>
+      <c r="B21" s="40"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5" t="s">
@@ -1645,13 +1636,13 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="43"/>
+      <c r="B34" s="39"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="36" t="s">
         <v>60</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -1659,25 +1650,25 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="41"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="41"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="41"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="41"/>
+      <c r="A39" s="37"/>
       <c r="B39" s="8" t="s">
         <v>62</v>
       </c>
@@ -1707,7 +1698,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -1715,13 +1706,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="42"/>
+      <c r="A44" s="38"/>
       <c r="B44" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="34" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -1729,19 +1720,19 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="38"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="38"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="38"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="20" t="s">
         <v>52</v>
       </c>
@@ -1749,6 +1740,10 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="fs9sxagiXee2QLASIeuAUv5AjCSYKtP3nVe2jlSIXoRFu6g00a5ndDbe7bI0a2pl3mHPVwJzVuvDh/+1jtcX+Q==" saltValue="bc8HRvpigal/MHhDBVvNDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="20">
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
@@ -1765,10 +1760,6 @@
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="D14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1779,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA28751-528F-4A6F-8C3E-65A25DE939E8}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1794,33 +1785,23 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
-        <v>43415</v>
-      </c>
+      <c r="B3" s="15"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
-        <v>43445</v>
-      </c>
+      <c r="B4" s="15"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
@@ -1832,14 +1813,11 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>74</v>
-      </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="CkeySC/C8iZRYd/Bou+kHJ+tenqRJgeVo9p+KKznjzbtDQUTfT+oF+BlDJNnvo7PIZmx4c32ZAFjn3qc9z7CuA==" saltValue="C4mwpbXAl5RdCHG8Scmucg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <dataConsolidate/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{02DF79AD-0EEF-47D8-9500-406DD63F0666}">
       <formula1>"Planning, Ongoing, Complete, Archived"</formula1>
     </dataValidation>
@@ -1879,11 +1857,17 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="21">
         <f>'Project Details'!B3</f>
-        <v>43415</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8eEDGcpQLG8VbIPsgTqs8X15c75LNoGef+7MaN3HYp1/HA1/wPPys1+FZposxVNZNgeCR1de+Cza32pG/Da2iw==" saltValue="0HZRjRlau23EoOH5JoP4Vg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/YSRL89Mv3I8knHDUtMUwHomLKCWUvuAwhk4HPpo3BcJRdjPedfIdkNYRnTvea3vjmPSRo/gLNQYpwE1h8Yykw==" saltValue="3a9Tk9Mt+WVceSTXpt4cUw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{CE9B7CFF-C56B-4DED-BA72-B738C1BF6C99}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/assets/uploads/templates/template.xlsx
+++ b/assets/uploads/templates/template.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B081BFC-3787-492E-99B6-8DB3D30C8E27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078ABC00-6DDE-4AE3-B8E7-16845671EE62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="L9Z15vBEz2epGjrmnD2GCZ3TpAEXPNqlWRnxO6loUarhdnFKARBiGAH/Wyv79dpM+TVRnBe6uTeWl8Q6c6dAtQ==" workbookSaltValue="/6iLE69xz0Zw6rrNckWjJA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5400" activeTab="1" xr2:uid="{583A6A4E-A812-461C-B0D8-F3BD4B06D54C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{583A6A4E-A812-461C-B0D8-F3BD4B06D54C}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t>Project Title</t>
   </si>
@@ -719,15 +719,6 @@
   </si>
   <si>
     <t>If new project:</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>Archived</t>
   </si>
 </sst>
 </file>
@@ -924,9 +915,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -978,6 +966,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1296,7 +1287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25318BA-378E-4535-A4E0-C8162B42E455}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1310,43 +1301,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="115.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
@@ -1449,16 +1440,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1467,51 +1458,51 @@
       <c r="C12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="29"/>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="40"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="41"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="33"/>
+      <c r="E14" s="32"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="41"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="6"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="30"/>
+      <c r="E15" s="29"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="41"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
     </row>
     <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="41"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="8" t="s">
         <v>61</v>
       </c>
@@ -1525,22 +1516,22 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="42"/>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="45"/>
+      <c r="B20" s="44"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="44"/>
+      <c r="B21" s="43"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5" t="s">
@@ -1645,13 +1636,13 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="43"/>
+      <c r="B34" s="42"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="39" t="s">
         <v>60</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -1659,25 +1650,25 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="41"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="41"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="41"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="41"/>
+      <c r="A39" s="40"/>
       <c r="B39" s="8" t="s">
         <v>62</v>
       </c>
@@ -1707,7 +1698,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="41" t="s">
         <v>9</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -1715,13 +1706,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="42"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="37" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -1729,19 +1720,19 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="38"/>
+      <c r="A46" s="37"/>
       <c r="B46" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="38"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="38"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="20" t="s">
         <v>52</v>
       </c>
@@ -1749,9 +1740,7 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="fs9sxagiXee2QLASIeuAUv5AjCSYKtP3nVe2jlSIXoRFu6g00a5ndDbe7bI0a2pl3mHPVwJzVuvDh/+1jtcX+Q==" saltValue="bc8HRvpigal/MHhDBVvNDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="20">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A35:A39"/>
@@ -1764,11 +1753,13 @@
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D16:E16"/>
     <mergeCell ref="D12:E13"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="D14:E14"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1779,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA28751-528F-4A6F-8C3E-65A25DE939E8}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1794,33 +1785,23 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
-        <v>43415</v>
-      </c>
+      <c r="B3" s="15"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
-        <v>43445</v>
-      </c>
+      <c r="B4" s="15"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
@@ -1832,14 +1813,11 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>74</v>
-      </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="CkeySC/C8iZRYd/Bou+kHJ+tenqRJgeVo9p+KKznjzbtDQUTfT+oF+BlDJNnvo7PIZmx4c32ZAFjn3qc9z7CuA==" saltValue="C4mwpbXAl5RdCHG8Scmucg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <dataConsolidate/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{02DF79AD-0EEF-47D8-9500-406DD63F0666}">
       <formula1>"Planning, Ongoing, Complete, Archived"</formula1>
     </dataValidation>
@@ -1879,11 +1857,17 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="21">
         <f>'Project Details'!B3</f>
-        <v>43415</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8eEDGcpQLG8VbIPsgTqs8X15c75LNoGef+7MaN3HYp1/HA1/wPPys1+FZposxVNZNgeCR1de+Cza32pG/Da2iw==" saltValue="0HZRjRlau23EoOH5JoP4Vg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/YSRL89Mv3I8knHDUtMUwHomLKCWUvuAwhk4HPpo3BcJRdjPedfIdkNYRnTvea3vjmPSRo/gLNQYpwE1h8Yykw==" saltValue="3a9Tk9Mt+WVceSTXpt4cUw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{CE9B7CFF-C56B-4DED-BA72-B738C1BF6C99}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1894,7 +1878,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1948,7 +1932,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="v/LjNG37xQiF24i0IxUCwr4F1DmNMtY03j8HmH1YC/t4YmmJdgvISqBz/ESgjZY5UDqU2z4/vc3ARnztWkDXgg==" saltValue="zpWSs5VrUP2pXfZqzeeF5A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0" insertRows="0"/>
+  <sheetProtection formatColumns="0" formatRows="0" insertRows="0"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{3C37A9F6-FF15-4EEB-A9B1-2439B7E25CFF}">
       <formula1>"Planning, Ongoing, Complete"</formula1>

--- a/assets/uploads/templates/template.xlsx
+++ b/assets/uploads/templates/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078ABC00-6DDE-4AE3-B8E7-16845671EE62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11007F4C-4AC0-49EA-AB88-6B96CF3B03FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="L9Z15vBEz2epGjrmnD2GCZ3TpAEXPNqlWRnxO6loUarhdnFKARBiGAH/Wyv79dpM+TVRnBe6uTeWl8Q6c6dAtQ==" workbookSaltValue="/6iLE69xz0Zw6rrNckWjJA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{583A6A4E-A812-461C-B0D8-F3BD4B06D54C}"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
   <si>
     <t>Project Title</t>
   </si>
@@ -262,30 +262,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R (Responsible)</t>
-    </r>
-  </si>
-  <si>
     <t>Dates must be in the range you have set in the Project Details</t>
   </si>
   <si>
@@ -295,9 +271,6 @@
 - Complete</t>
   </si>
   <si>
-    <t>This field is required if task was delayed</t>
-  </si>
-  <si>
     <t>Must be a valid input from the list below:
 - 1 (Main Activity)
 - 2 (Sub Activity)
@@ -532,9 +505,6 @@
     </r>
   </si>
   <si>
-    <t>Please follow these instructions to ensure that the project you are trying to upload goes through without any problems</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Use a comma (, ) to separate multiple </t>
     </r>
@@ -704,21 +674,157 @@
     <t>Project Assessment</t>
   </si>
   <si>
+    <t>Should start from the Project Start Date</t>
+  </si>
+  <si>
+    <t>Should have 2 decimal places</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R (Responsible)</t>
+    </r>
+  </si>
+  <si>
+    <t>This is required for Category 3 (Tasks)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If new project:
+Completeness    =     0.00
+Timeliness           =     100.00 </t>
+  </si>
+  <si>
+    <t>Date must be sequential</t>
+  </si>
+  <si>
     <t>Completeness
+Timeliness</t>
+  </si>
+  <si>
+    <t>*First row is always required</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Date</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Completeness
 %</t>
-  </si>
-  <si>
-    <t>Timeliness
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Timeliness
 %</t>
-  </si>
-  <si>
-    <t>Should start from the Project Start Date</t>
-  </si>
-  <si>
-    <t>Should have 2 decimal places</t>
-  </si>
-  <si>
-    <t>If new project:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Task Parent</t>
+    </r>
+  </si>
+  <si>
+    <t>This field is required if task is delayed</t>
+  </si>
+  <si>
+    <t>Please follow these instructions to ensure that the project you are trying to upload goes through 
+without any problems</t>
   </si>
 </sst>
 </file>
@@ -807,7 +913,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -834,9 +940,37 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -891,56 +1025,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -968,9 +1068,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1285,91 +1415,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25318BA-378E-4535-A4E0-C8162B42E455}">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17.9453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.05078125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.20703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.20703125" customWidth="1"/>
     <col min="4" max="4" width="13.89453125" customWidth="1"/>
-    <col min="5" max="5" width="9.26171875" customWidth="1"/>
+    <col min="5" max="5" width="19.7890625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="115.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="38"/>
+      <c r="A1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="42"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
+        <v>63</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
+      <c r="A3" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>68</v>
+      <c r="C5" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="41">
         <v>43409</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="42">
         <v>0</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="42">
         <v>100</v>
       </c>
     </row>
@@ -1380,45 +1513,45 @@
       <c r="B7" s="7">
         <v>43409</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="41">
         <v>43410</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="42">
         <v>5</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="42">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B8" s="7">
         <v>43439</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="41">
         <v>43411</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="42">
         <v>12.75</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="42">
         <v>82.75</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="23">
+      <c r="C9" s="41">
         <v>43412</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="42">
         <v>15.5</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="42">
         <v>80</v>
       </c>
     </row>
@@ -1429,13 +1562,13 @@
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="41">
         <v>43413</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="42">
         <v>19.010000000000002</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="42">
         <v>77.930000000000007</v>
       </c>
     </row>
@@ -1443,72 +1576,77 @@
       <c r="A11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="39" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="37"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="27"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="28"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="39"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="E13" s="37"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="40"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="32" t="s">
+      <c r="C14" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="32"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="40"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="29"/>
+      <c r="D14" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="15" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="28"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="40"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
     </row>
     <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="40"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="8" t="s">
-        <v>61</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
     </row>
     <row r="18" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1516,22 +1654,22 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="30"/>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="44"/>
+      <c r="A20" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="32"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="43"/>
+      <c r="B21" s="31"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5" t="s">
@@ -1559,7 +1697,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B25" s="10"/>
       <c r="D25" s="3"/>
@@ -1597,7 +1735,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>27</v>
@@ -1605,7 +1743,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="5" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>28</v>
@@ -1613,15 +1751,15 @@
     </row>
     <row r="31" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>30</v>
@@ -1629,48 +1767,48 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="42"/>
+      <c r="B34" s="30"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="39" t="s">
-        <v>60</v>
+      <c r="A35" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="40"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="40"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="40"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="40"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1678,7 +1816,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1686,7 +1824,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
@@ -1694,55 +1832,71 @@
         <v>8</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="29"/>
+      <c r="B44" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="B43" s="13" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="35"/>
+      <c r="B46" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="41"/>
-      <c r="B44" s="13" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="35"/>
+      <c r="B47" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="37"/>
-      <c r="B46" s="13" t="s">
+    <row r="48" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="35"/>
+      <c r="B48" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="37"/>
-      <c r="B47" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="37"/>
-      <c r="B48" s="20" t="s">
-        <v>52</v>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="36"/>
+      <c r="B49" s="19" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fs9sxagiXee2QLASIeuAUv5AjCSYKtP3nVe2jlSIXoRFu6g00a5ndDbe7bI0a2pl3mHPVwJzVuvDh/+1jtcX+Q==" saltValue="bc8HRvpigal/MHhDBVvNDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="20">
+  <sheetProtection algorithmName="SHA-512" hashValue="OQRjZR6k4BGMnc6yi3RVPputo6unOcqjSIz+mpy9qMyIq5ltTvwn35cj6NO9mSN+oXp5CLaISthtCKnGa459Rg==" saltValue="TgghTaFeXbaSb2hh+l16Gg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="25">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="A19:B19"/>
@@ -1753,13 +1907,8 @@
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D12:E13"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1805,7 +1954,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B5" s="15"/>
     </row>
@@ -1837,25 +1986,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.15625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.20703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26171875" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.15625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.20703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26171875" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.83984375" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <f>'Project Details'!B3</f>
         <v>0</v>
       </c>
@@ -1904,7 +2053,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>

--- a/assets/uploads/templates/template.xlsx
+++ b/assets/uploads/templates/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11007F4C-4AC0-49EA-AB88-6B96CF3B03FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70779B7-6DE3-4500-9C41-BB7E251E5B9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="L9Z15vBEz2epGjrmnD2GCZ3TpAEXPNqlWRnxO6loUarhdnFKARBiGAH/Wyv79dpM+TVRnBe6uTeWl8Q6c6dAtQ==" workbookSaltValue="/6iLE69xz0Zw6rrNckWjJA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{583A6A4E-A812-461C-B0D8-F3BD4B06D54C}"/>
@@ -977,7 +977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1041,51 +1041,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1093,14 +1048,67 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1431,46 +1439,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="115.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
@@ -1482,7 +1490,7 @@
       <c r="C5" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="25" t="s">
         <v>73</v>
       </c>
       <c r="E5" s="23" t="s">
@@ -1496,13 +1504,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="26">
         <v>43409</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="27">
         <v>0</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="27">
         <v>100</v>
       </c>
     </row>
@@ -1513,13 +1521,13 @@
       <c r="B7" s="7">
         <v>43409</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="26">
         <v>43410</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="27">
         <v>5</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="27">
         <v>90</v>
       </c>
     </row>
@@ -1530,13 +1538,13 @@
       <c r="B8" s="7">
         <v>43439</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="26">
         <v>43411</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="27">
         <v>12.75</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="27">
         <v>82.75</v>
       </c>
     </row>
@@ -1545,13 +1553,13 @@
         <v>51</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="41">
+      <c r="C9" s="26">
         <v>43412</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="27">
         <v>15.5</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="27">
         <v>80</v>
       </c>
     </row>
@@ -1562,88 +1570,88 @@
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="26">
         <v>43413</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="27">
         <v>19.010000000000002</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="27">
         <v>77.930000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="27"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="37" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="37"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="28"/>
-      <c r="B14" s="43" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="38"/>
+      <c r="E14" s="35"/>
     </row>
     <row r="15" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="28"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="37" t="s">
+      <c r="A15" s="45"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="37"/>
+      <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="28"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
     </row>
     <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="28"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="24" t="s">
@@ -1654,22 +1662,22 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="30"/>
+      <c r="B19" s="36"/>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="32"/>
+      <c r="B20" s="37"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="38"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5" t="s">
@@ -1774,13 +1782,13 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="30"/>
+      <c r="B34" s="36"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="44" t="s">
         <v>57</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -1788,25 +1796,25 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="28"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="28"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="28"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="28"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="8" t="s">
         <v>59</v>
       </c>
@@ -1836,7 +1844,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="42" t="s">
         <v>9</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -1844,13 +1852,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="29"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -1858,25 +1866,25 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="35"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="35"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="35"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="36"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="19" t="s">
         <v>49</v>
       </c>
@@ -1884,6 +1892,17 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="OQRjZR6k4BGMnc6yi3RVPputo6unOcqjSIz+mpy9qMyIq5ltTvwn35cj6NO9mSN+oXp5CLaISthtCKnGa459Rg==" saltValue="TgghTaFeXbaSb2hh+l16Gg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="25">
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
@@ -1894,20 +1913,9 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A12:A17"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D15:E15"/>
     <mergeCell ref="A11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2032,13 +2040,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="9.83984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83984375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="13.578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.83984375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="10.15625" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.83984375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="8.83984375" style="47" customWidth="1"/>
+    <col min="2" max="2" width="9.83984375" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83984375" style="48" customWidth="1"/>
+    <col min="4" max="4" width="13.578125" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.83984375" style="47" customWidth="1"/>
+    <col min="8" max="8" width="10.15625" style="47" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.83984375" style="47" customWidth="1"/>
     <col min="13" max="16384" width="8.83984375" hidden="1"/>
   </cols>
   <sheetData>
@@ -2081,7 +2089,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" formatRows="0" insertRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SbZfcEDDoLGyMU0qCRTPejvVPyEfT6jGWv0tyQq/3qSuUBMQNXSc6V2x5/bfjEILFZvHJUVsUkyfM6Dn50ZqoQ==" saltValue="+Iifc5IU5cOXa8CBz9TWtQ==" spinCount="100000" sheet="1" formatColumns="0" formatRows="0" insertRows="0"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{3C37A9F6-FF15-4EEB-A9B1-2439B7E25CFF}">
       <formula1>"Planning, Ongoing, Complete"</formula1>

--- a/assets/uploads/templates/template.xlsx
+++ b/assets/uploads/templates/template.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70779B7-6DE3-4500-9C41-BB7E251E5B9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="L9Z15vBEz2epGjrmnD2GCZ3TpAEXPNqlWRnxO6loUarhdnFKARBiGAH/Wyv79dpM+TVRnBe6uTeWl8Q6c6dAtQ==" workbookSaltValue="/6iLE69xz0Zw6rrNckWjJA==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE926DF-DA70-4091-B69F-1D67638A2E17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{583A6A4E-A812-461C-B0D8-F3BD4B06D54C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" activeTab="4" xr2:uid="{583A6A4E-A812-461C-B0D8-F3BD4B06D54C}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
     <sheet name="Project Details" sheetId="5" r:id="rId2"/>
     <sheet name="Project Assessment" sheetId="6" r:id="rId3"/>
     <sheet name="Tasks" sheetId="3" r:id="rId4"/>
+    <sheet name="Main Activity Progress" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
   <si>
     <t>Project Title</t>
   </si>
@@ -826,13 +826,17 @@
     <t>Please follow these instructions to ensure that the project you are trying to upload goes through 
 without any problems</t>
   </si>
+  <si>
+    <t>Main Activity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -977,7 +981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1050,57 +1054,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
@@ -1109,6 +1062,58 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1425,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25318BA-378E-4535-A4E0-C8162B42E455}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -1439,46 +1444,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="115.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
@@ -1581,71 +1586,71 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
     </row>
     <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="32"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="44"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="32" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="32"/>
+      <c r="E13" s="42"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="45"/>
-      <c r="B14" s="31" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="35"/>
+      <c r="E14" s="47"/>
     </row>
     <row r="15" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="45"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="32" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="32"/>
+      <c r="E15" s="42"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="45"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="28"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="45"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="8" t="s">
         <v>58</v>
       </c>
@@ -1662,22 +1667,22 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="36"/>
+      <c r="B19" s="39"/>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="41"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="38"/>
+      <c r="B21" s="40"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5" t="s">
@@ -1782,13 +1787,13 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="36"/>
+      <c r="B34" s="39"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="37" t="s">
         <v>57</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -1796,25 +1801,25 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="45"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="45"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="45"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="45"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="8" t="s">
         <v>59</v>
       </c>
@@ -1844,7 +1849,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -1852,13 +1857,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="42"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="32" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -1866,25 +1871,25 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="40"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="40"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="40"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="41"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="19" t="s">
         <v>49</v>
       </c>
@@ -1892,17 +1897,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="OQRjZR6k4BGMnc6yi3RVPputo6unOcqjSIz+mpy9qMyIq5ltTvwn35cj6NO9mSN+oXp5CLaISthtCKnGa459Rg==" saltValue="TgghTaFeXbaSb2hh+l16Gg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="25">
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="D15:E15"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
@@ -1917,6 +1911,17 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1989,7 +1994,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2040,13 +2045,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="47" customWidth="1"/>
-    <col min="2" max="2" width="9.83984375" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83984375" style="48" customWidth="1"/>
-    <col min="4" max="4" width="13.578125" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.83984375" style="47" customWidth="1"/>
-    <col min="8" max="8" width="10.15625" style="47" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.83984375" style="47" customWidth="1"/>
+    <col min="1" max="1" width="8.83984375" style="30" customWidth="1"/>
+    <col min="2" max="2" width="9.83984375" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83984375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="13.578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.83984375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="10.15625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.83984375" style="30" customWidth="1"/>
     <col min="13" max="16384" width="8.83984375" hidden="1"/>
   </cols>
   <sheetData>
@@ -2101,4 +2106,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2BD2F4-41E4-4F37-B744-E69A9D8AD70C}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8.83984375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.20703125" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26171875" style="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83984375" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/assets/uploads/templates/template.xlsx
+++ b/assets/uploads/templates/template.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE926DF-DA70-4091-B69F-1D67638A2E17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0E405D-176A-4922-A478-7A6BCF1A7168}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="rJmt4jDk78oeUDM4th1efx1sl7iJYsbNbBmSQV9IAx5eTBM4ArX3GkYlHeue0YajTXtIZAuIefmDm0U2VRcnZA==" workbookSaltValue="Gwn92u3G/pn4zaX1HW3qlg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" activeTab="4" xr2:uid="{583A6A4E-A812-461C-B0D8-F3BD4B06D54C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{583A6A4E-A812-461C-B0D8-F3BD4B06D54C}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -836,7 +837,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="166" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -981,7 +982,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1016,10 +1017,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1032,7 +1029,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1062,6 +1058,42 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1083,37 +1115,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1430,7 +1431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25318BA-378E-4535-A4E0-C8162B42E455}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -1444,35 +1445,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="115.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="41" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="40" t="s">
@@ -1492,13 +1493,13 @@
       <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="21" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1509,13 +1510,13 @@
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="24">
         <v>43409</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="25">
         <v>0</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="25">
         <v>100</v>
       </c>
     </row>
@@ -1526,13 +1527,13 @@
       <c r="B7" s="7">
         <v>43409</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="24">
         <v>43410</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="25">
         <v>5</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="25">
         <v>90</v>
       </c>
     </row>
@@ -1543,13 +1544,13 @@
       <c r="B8" s="7">
         <v>43439</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="24">
         <v>43411</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="25">
         <v>12.75</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <v>82.75</v>
       </c>
     </row>
@@ -1558,13 +1559,13 @@
         <v>51</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="26">
+      <c r="C9" s="24">
         <v>43412</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="25">
         <v>15.5</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="25">
         <v>80</v>
       </c>
     </row>
@@ -1575,91 +1576,91 @@
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="24">
         <v>43413</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="25">
         <v>19.010000000000002</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="25">
         <v>77.930000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="37"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="42" t="s">
+      <c r="A13" s="47"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="E13" s="42"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="38"/>
-      <c r="B14" s="44" t="s">
+      <c r="A14" s="48"/>
+      <c r="B14" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="47"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="38"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="42" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="42"/>
+      <c r="E15" s="34"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="38"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
     </row>
     <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="38"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
     </row>
     <row r="18" spans="1:13" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -1667,16 +1668,16 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="39"/>
+      <c r="B19" s="38"/>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="41"/>
+      <c r="B20" s="39"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="40" t="s">
@@ -1787,13 +1788,13 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="39"/>
+      <c r="B34" s="38"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="47" t="s">
         <v>57</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -1801,31 +1802,31 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="38"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="38"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="12" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="38"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="38"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -1841,7 +1842,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -1849,7 +1850,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="35" t="s">
+      <c r="A43" s="45" t="s">
         <v>9</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -1857,13 +1858,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="35"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="32" t="s">
+      <c r="A45" s="42" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -1871,32 +1872,43 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="33"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="33"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="33"/>
-      <c r="B48" s="18" t="s">
+      <c r="A48" s="43"/>
+      <c r="B48" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="34"/>
-      <c r="B49" s="19" t="s">
+      <c r="A49" s="44"/>
+      <c r="B49" s="18" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="OQRjZR6k4BGMnc6yi3RVPputo6unOcqjSIz+mpy9qMyIq5ltTvwn35cj6NO9mSN+oXp5CLaISthtCKnGa459Rg==" saltValue="TgghTaFeXbaSb2hh+l16Gg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="25">
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
@@ -1911,17 +1923,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1933,7 +1934,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1943,47 +1944,39 @@
     <col min="3" max="16384" width="8.83984375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="15"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CkeySC/C8iZRYd/Bou+kHJ+tenqRJgeVo9p+KKznjzbtDQUTfT+oF+BlDJNnvo7PIZmx4c32ZAFjn3qc9z7CuA==" saltValue="C4mwpbXAl5RdCHG8Scmucg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PyWa8IMpOLggn4cnA+u0QykBfgsHtyuJqZ70dUN1T2MEoohRU8SfS3C3OWYAA+nT/pwl0or+qF4M3Y5j+Sz61w==" saltValue="fzsTOTq9NQ0DmvERcYqH9A==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <dataConsolidate/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{02DF79AD-0EEF-47D8-9500-406DD63F0666}">
-      <formula1>"Planning, Ongoing, Complete, Archived"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1991,17 +1984,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3AC035-B786-4019-BEDA-2BA1ADC5DFA8}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.15625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.20703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26171875" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.15625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.20703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26171875" style="19" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.83984375" hidden="1"/>
   </cols>
   <sheetData>
@@ -2016,14 +2009,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="20">
-        <f>'Project Details'!B3</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/YSRL89Mv3I8knHDUtMUwHomLKCWUvuAwhk4HPpo3BcJRdjPedfIdkNYRnTvea3vjmPSRo/gLNQYpwE1h8Yykw==" saltValue="3a9Tk9Mt+WVceSTXpt4cUw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="q1EE7Rh/00eLhYNVGDiZIGLL98WiAeynZHxWyNjdZUm3s3Sjbc89UqG2hMoTB8jf+5dL3PrYNnZzEw4EeAnWdw==" saltValue="tAJBQ5aYMeVpFYD06o/DcA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <dataValidations count="1">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C1048576" xr:uid="{CE9B7CFF-C56B-4DED-BA72-B738C1BF6C99}">
       <formula1>0</formula1>
@@ -2040,18 +2027,18 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="9.83984375" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83984375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="13.578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="8.83984375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="10.15625" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.83984375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="18.3125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83984375" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83984375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="13.578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="8.83984375" style="28" customWidth="1"/>
+    <col min="8" max="8" width="10.15625" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.83984375" style="28" customWidth="1"/>
     <col min="13" max="16384" width="8.83984375" hidden="1"/>
   </cols>
   <sheetData>
@@ -2094,15 +2081,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SbZfcEDDoLGyMU0qCRTPejvVPyEfT6jGWv0tyQq/3qSuUBMQNXSc6V2x5/bfjEILFZvHJUVsUkyfM6Dn50ZqoQ==" saltValue="+Iifc5IU5cOXa8CBz9TWtQ==" spinCount="100000" sheet="1" formatColumns="0" formatRows="0" insertRows="0"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{3C37A9F6-FF15-4EEB-A9B1-2439B7E25CFF}">
-      <formula1>"Planning, Ongoing, Complete"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{DD541CC6-D49D-46CB-A88B-7F080EA9B42F}">
-      <formula1>"1, 2, 3"</formula1>
-    </dataValidation>
-  </dataValidations>
+  <sheetProtection algorithmName="SHA-512" hashValue="KZj6skOBAv4g07SsaTE5lAOfq59aiGaTvp0of/wMWgRkAm6SEx6J5zDtQ6mEZxcskK/kiezE1wus0T2RiEl7sA==" saltValue="waqN0uNjRSg9C8ZQjJ4b9Q==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2112,16 +2091,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2BD2F4-41E4-4F37-B744-E69A9D8AD70C}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.83984375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.20703125" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26171875" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.20703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26171875" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83984375" style="31" customWidth="1"/>
     <col min="5" max="16384" width="8.83984375" hidden="1"/>
   </cols>
   <sheetData>
@@ -2140,6 +2119,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="P886SJJj9XymlP4t9P6iZVLhQFkX8dW47/aofo5kvY9ALJdxzHyVP/r+ci2wzs5en0aDgnAAJUAQ1wrwhFnAmg==" saltValue="Y3E16uxlK1PWSgsIHAaEvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" insertRows="0" deleteRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/uploads/templates/template.xlsx
+++ b/assets/uploads/templates/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Kernel\assets\uploads\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2A8A3D-AD9C-4863-8696-B7CAD74CE364}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5342955-E543-4BDE-A360-AAB14BF5B626}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="SphqVu3DoWh/UvDygdeGoOf8/Lmwrn0Kqhj/y2Z1qkr/7Bk4yKsq2naxlv10sJ0v4qo0zQ2/ACNlix32xPcsEA==" workbookSaltValue="s39O9gq9psokRiEUswg27g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8778" xr2:uid="{1CF4B42F-4E2E-4934-982A-DF1722B6F7D0}"/>
@@ -1092,102 +1092,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1198,6 +1102,102 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1515,7 +1515,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -1532,37 +1532,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="28"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="58" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="27" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1573,8 +1573,8 @@
       <c r="A5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="59" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1585,8 +1585,8 @@
       <c r="A6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="59" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="27" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="4">
@@ -1597,8 +1597,8 @@
       <c r="A7" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="59" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="27" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="4">
@@ -1606,16 +1606,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1624,8 +1624,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="25" t="s">
         <v>82</v>
       </c>
@@ -1634,62 +1634,62 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="27" t="s">
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="28"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="31" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="43" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="35"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="44"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="34" t="s">
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="43" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="35"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="44"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="33"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="6" t="s">
         <v>22</v>
       </c>
@@ -1698,8 +1698,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
       <c r="C19" s="6" t="s">
         <v>81</v>
       </c>
@@ -1708,6 +1708,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="E0Gb48vyjlLAG4msZzeDRlzAv2MpozP0JiMZ/oEmQk18tHXoKgrhBSJW8pUQyG8uw6pbVMn8KcAhHJVFmZqLfA==" saltValue="BFx42eiYuETTP/UZeS2HSw==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0"/>
   <mergeCells count="8">
     <mergeCell ref="A8:B19"/>
     <mergeCell ref="C1:D1"/>
@@ -1744,9 +1745,9 @@
     <col min="1" max="1" width="11.734375" customWidth="1"/>
     <col min="2" max="2" width="12.20703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.15625" customWidth="1"/>
-    <col min="4" max="4" width="14.83984375" style="44" customWidth="1"/>
-    <col min="5" max="5" width="16.578125" style="44" customWidth="1"/>
-    <col min="6" max="6" width="13.1015625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="14.83984375" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.578125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="13.1015625" style="45" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="16384" width="8.83984375" hidden="1"/>
   </cols>
@@ -1761,44 +1762,44 @@
       <c r="C1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="46" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" s="11">
@@ -1856,55 +1857,60 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="49"/>
     </row>
     <row r="13" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D13" s="49"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="52"/>
+      <c r="E13" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="49"/>
     </row>
     <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="48"/>
+      <c r="F14" s="51"/>
     </row>
     <row r="15" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D15" s="43"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
     </row>
     <row r="16" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D16" s="43"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
     </row>
     <row r="17" spans="4:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D17" s="43"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BqHh/Kq+QskqE4lCQImwPAVqX57WMxEi+5RVts1BhoA20FJntkgOc60e/Dmmu+XdSfI6au8jCOyBn+VnPWa/Dg==" saltValue="slH92x0dpQDou1k9N0TO+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="13">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="D14:D17"/>
     <mergeCell ref="D18:F1048576"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
@@ -1913,11 +1919,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F17"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="D14:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1943,8 +1944,8 @@
     <col min="8" max="8" width="10.15625" style="20" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="8.83984375" style="20" customWidth="1"/>
     <col min="13" max="13" width="8.83984375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="14.578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="49.05078125" style="44" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.578125" style="45" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="49.05078125" style="45" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="8.83984375" hidden="1"/>
   </cols>
   <sheetData>
@@ -1985,60 +1986,60 @@
       <c r="L1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="39"/>
+      <c r="O1" s="48"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="N2" s="40" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="N2" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="40"/>
+      <c r="O2" s="53"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="N3" s="41" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="N3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="41"/>
+      <c r="O3" s="54"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
       <c r="N4" s="2" t="s">
         <v>43</v>
       </c>
@@ -2047,18 +2048,18 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
       <c r="N5" s="2" t="s">
         <v>12</v>
       </c>
@@ -2067,18 +2068,18 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
       <c r="N6" s="2" t="s">
         <v>45</v>
       </c>
@@ -2087,36 +2088,36 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
       <c r="N7" s="2" t="s">
         <v>46</v>
       </c>
       <c r="O7" s="14"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
       <c r="N8" s="2" t="s">
         <v>14</v>
       </c>
@@ -2125,36 +2126,36 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
       <c r="N9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
       <c r="N10" s="2" t="s">
         <v>48</v>
       </c>
@@ -2163,18 +2164,18 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
       <c r="N11" s="2" t="s">
         <v>71</v>
       </c>
@@ -2183,18 +2184,18 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
       <c r="N12" s="2" t="s">
         <v>50</v>
       </c>
@@ -2203,18 +2204,18 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
       <c r="N13" s="2" t="s">
         <v>52</v>
       </c>
@@ -2223,18 +2224,18 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
       <c r="N14" s="2" t="s">
         <v>54</v>
       </c>
@@ -2243,18 +2244,18 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
       <c r="N15" s="2" t="s">
         <v>56</v>
       </c>
@@ -2263,37 +2264,37 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="N16" s="39" t="s">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="N16" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="39"/>
+      <c r="O16" s="48"/>
     </row>
     <row r="17" spans="1:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="N17" s="50" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="N17" s="57" t="s">
         <v>17</v>
       </c>
       <c r="O17" s="7" t="s">
@@ -2301,174 +2302,174 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="N18" s="50"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="N18" s="57"/>
       <c r="O18" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="N19" s="50"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="N19" s="57"/>
       <c r="O19" s="17" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="N20" s="50"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="N20" s="57"/>
       <c r="O20" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="42" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="49" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="42"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="49"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="62"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="N23" s="49" t="s">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="N23" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="O23" s="42" t="s">
+      <c r="O23" s="49" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="42"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="49"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="42"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="49"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="42"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="49"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="62"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
       <c r="N27" s="10" t="s">
         <v>35</v>
       </c>
@@ -2477,97 +2478,97 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="N28" s="49" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="N28" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="O28" s="42" t="s">
+      <c r="O28" s="49" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="42"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="49"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="42"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="49"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="42"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="49"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N32" s="49" t="s">
+      <c r="N32" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="O32" s="42" t="s">
+      <c r="O32" s="49" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="33" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N33" s="49"/>
-      <c r="O33" s="42"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="49"/>
     </row>
     <row r="34" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N34" s="49"/>
-      <c r="O34" s="42" t="s">
+      <c r="N34" s="52"/>
+      <c r="O34" s="49" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="35" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N35" s="49"/>
-      <c r="O35" s="42"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="49"/>
     </row>
     <row r="36" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N36" s="43" t="s">
+      <c r="N36" s="55" t="s">
         <v>62</v>
       </c>
       <c r="O36" s="18" t="s">
@@ -2575,37 +2576,37 @@
       </c>
     </row>
     <row r="37" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N37" s="51"/>
+      <c r="N37" s="56"/>
       <c r="O37" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="38" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N38" s="51"/>
+      <c r="N38" s="56"/>
       <c r="O38" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="39" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N39" s="51"/>
-      <c r="O39" s="42" t="s">
+      <c r="N39" s="56"/>
+      <c r="O39" s="49" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="40" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N40" s="51"/>
-      <c r="O40" s="42"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="49"/>
     </row>
     <row r="41" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N41" s="51"/>
-      <c r="O41" s="42"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="49"/>
     </row>
     <row r="42" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N42" s="51"/>
-      <c r="O42" s="42"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="49"/>
     </row>
     <row r="43" spans="14:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="N43" s="51"/>
+      <c r="N43" s="56"/>
       <c r="O43" s="7" t="s">
         <v>66</v>
       </c>
@@ -2613,6 +2614,14 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="pzVGcWR8rdZLa7Gbqls0dGNgFxFpYnG39nCPnluOfY71SOf99dJJRNkxRHy8s9/z7M9GA1usQKiMssPJlyJL2w==" saltValue="Cp3pcr49pskBUoylsxz8Pg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="16">
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N23:N26"/>
+    <mergeCell ref="N17:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="O23:O26"/>
     <mergeCell ref="O28:O31"/>
     <mergeCell ref="N44:O1048576"/>
     <mergeCell ref="O39:O42"/>
@@ -2621,14 +2630,6 @@
     <mergeCell ref="N28:N31"/>
     <mergeCell ref="O32:O33"/>
     <mergeCell ref="O34:O35"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N23:N26"/>
-    <mergeCell ref="N17:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="O23:O26"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E32:E1048576" xr:uid="{5D3CD780-793E-432D-B34C-7F3DD392B516}">
@@ -2653,12 +2654,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.83984375" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.20703125" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.41796875" style="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.89453125" style="54" customWidth="1"/>
-    <col min="5" max="5" width="13.734375" style="54" customWidth="1"/>
-    <col min="6" max="6" width="12.15625" style="54" customWidth="1"/>
+    <col min="1" max="1" width="9.83984375" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.20703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.41796875" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.89453125" style="60" customWidth="1"/>
+    <col min="5" max="5" width="13.734375" style="60" customWidth="1"/>
+    <col min="6" max="6" width="12.15625" style="60" customWidth="1"/>
     <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="9" max="16384" width="8.83984375" hidden="1"/>
   </cols>
@@ -2673,41 +2674,41 @@
       <c r="C1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="46" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" s="11">
@@ -2776,84 +2777,79 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
     </row>
     <row r="13" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D13" s="52" t="s">
+      <c r="D13" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="49"/>
     </row>
     <row r="16" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D16" s="49"/>
-      <c r="E16" s="42" t="s">
+      <c r="D16" s="52"/>
+      <c r="E16" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="42"/>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="4:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="55"/>
+      <c r="F17" s="61"/>
     </row>
     <row r="18" spans="4:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D18" s="53"/>
-      <c r="E18" s="47" t="s">
+      <c r="D18" s="58"/>
+      <c r="E18" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="47"/>
+      <c r="F18" s="50"/>
     </row>
     <row r="19" spans="4:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="53"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
     </row>
     <row r="20" spans="4:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" s="53"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D21" s="53"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="eUVsmZf1aUUF3w2/lcF2L/A0Oc7v/VJ2jQACXQiL8ROyXczgfQddAEWgOytaTo4MEzBcJ/hKMCgmFbedpbp2rQ==" saltValue="LRrhDMFcBe/5rSUDztO/fA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="15">
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="D22:F1048576"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F21"/>
-    <mergeCell ref="E16:F16"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="D12:F12"/>
@@ -2864,6 +2860,11 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="D13:F14"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D22:F1048576"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F21"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
